--- a/NhomF-Phan-Cong.xlsx
+++ b/NhomF-Phan-Cong.xlsx
@@ -15,12 +15,19 @@
     <sheet name="Trang tính1" sheetId="1" r:id="rId1"/>
     <sheet name="Trang tính2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="module1">'Trang tính2'!$A$38</definedName>
+    <definedName name="module2">'Trang tính2'!$A$73</definedName>
+    <definedName name="module3">'Trang tính2'!$A$91</definedName>
+    <definedName name="module4">'Trang tính2'!$A$112</definedName>
+    <definedName name="module5">'Trang tính2'!$A$139</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="83">
   <si>
     <t>Nhóm F</t>
   </si>
@@ -166,9 +173,6 @@
     <t>Thực hiện module 2 và 5</t>
   </si>
   <si>
-    <t>module 2 và module 5</t>
-  </si>
-  <si>
     <t>Hoàn thành 40% module</t>
   </si>
   <si>
@@ -259,20 +263,26 @@
     <t>Buổi 15 6/11/2019</t>
   </si>
   <si>
-    <t>module1-1</t>
-  </si>
-  <si>
     <t>module1-2</t>
   </si>
   <si>
     <t>module1-1,1-2</t>
+  </si>
+  <si>
+    <t>hinh1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">module 2 </t>
+  </si>
+  <si>
+    <t>module5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -296,6 +306,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -334,10 +350,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -348,8 +365,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -761,8 +780,8 @@
   </sheetPr>
   <dimension ref="A1:N143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1182,11 +1201,14 @@
       <c r="E39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>31</v>
@@ -1199,11 +1221,11 @@
       <c r="E40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="8" t="s">
         <v>5</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>31</v>
@@ -1216,11 +1238,11 @@
       <c r="E41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>79</v>
+      <c r="F41" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>31</v>
@@ -1233,11 +1255,11 @@
       <c r="E42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>31</v>
@@ -1250,11 +1272,11 @@
       <c r="E43" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>80</v>
+      <c r="F43" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>31</v>
@@ -1262,7 +1284,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
@@ -1273,16 +1295,19 @@
         <v>15</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -1290,16 +1315,16 @@
         <v>19</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F47" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>5</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -1307,16 +1332,16 @@
         <v>23</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>79</v>
+        <v>53</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -1324,16 +1349,16 @@
         <v>25</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -1341,21 +1366,21 @@
         <v>21</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>80</v>
+        <v>53</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>12</v>
@@ -1366,16 +1391,19 @@
         <v>15</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -1383,16 +1411,16 @@
         <v>19</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J56" s="1" t="s">
+      <c r="N56" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -1400,16 +1428,16 @@
         <v>23</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>79</v>
+        <v>53</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -1417,16 +1445,16 @@
         <v>25</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -1434,21 +1462,21 @@
         <v>21</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>80</v>
+        <v>53</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>12</v>
@@ -1459,13 +1487,16 @@
         <v>15</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -1473,13 +1504,13 @@
         <v>19</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F62" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>5</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -1487,13 +1518,13 @@
         <v>23</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>79</v>
+        <v>53</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -1501,13 +1532,13 @@
         <v>25</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -1515,18 +1546,18 @@
         <v>21</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>80</v>
+        <v>53</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>12</v>
@@ -1537,16 +1568,19 @@
         <v>15</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -1554,16 +1588,16 @@
         <v>19</v>
       </c>
       <c r="E69" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J69" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F69" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J69" s="1" t="s">
+      <c r="N69" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -1571,16 +1605,16 @@
         <v>23</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>79</v>
+        <v>53</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -1588,16 +1622,16 @@
         <v>25</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -1605,21 +1639,21 @@
         <v>21</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>80</v>
+        <v>53</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>12</v>
@@ -1630,16 +1664,19 @@
         <v>15</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -1647,16 +1684,16 @@
         <v>19</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F76" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F76" s="8" t="s">
         <v>5</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -1664,16 +1701,16 @@
         <v>23</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>79</v>
+        <v>53</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -1681,16 +1718,16 @@
         <v>25</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -1698,21 +1735,21 @@
         <v>21</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>80</v>
+        <v>53</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>12</v>
@@ -1723,13 +1760,16 @@
         <v>15</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -1737,13 +1777,13 @@
         <v>19</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F83" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F83" s="8" t="s">
         <v>5</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -1751,13 +1791,13 @@
         <v>23</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>79</v>
+        <v>53</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -1765,13 +1805,13 @@
         <v>25</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -1779,18 +1819,18 @@
         <v>21</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>80</v>
+        <v>53</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>12</v>
@@ -1801,13 +1841,16 @@
         <v>15</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -1815,13 +1858,13 @@
         <v>19</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F91" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F91" s="8" t="s">
         <v>5</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -1829,13 +1872,13 @@
         <v>23</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>79</v>
+        <v>53</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -1843,13 +1886,13 @@
         <v>25</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -1857,18 +1900,18 @@
         <v>21</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>80</v>
+        <v>53</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>12</v>
@@ -1879,13 +1922,16 @@
         <v>15</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -1893,13 +1939,13 @@
         <v>19</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F99" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F99" s="8" t="s">
         <v>5</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -1907,13 +1953,13 @@
         <v>23</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>79</v>
+        <v>53</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -1921,13 +1967,13 @@
         <v>25</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -1935,18 +1981,18 @@
         <v>21</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>80</v>
+        <v>53</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>12</v>
@@ -1957,13 +2003,16 @@
         <v>15</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -1971,13 +2020,13 @@
         <v>19</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F107" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F107" s="8" t="s">
         <v>5</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -1985,13 +2034,13 @@
         <v>23</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>79</v>
+        <v>53</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -1999,13 +2048,13 @@
         <v>25</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -2013,18 +2062,18 @@
         <v>21</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>80</v>
+        <v>53</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>12</v>
@@ -2035,10 +2084,10 @@
         <v>15</v>
       </c>
       <c r="E113" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J113" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -2046,10 +2095,10 @@
         <v>19</v>
       </c>
       <c r="E114" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J114" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -2057,10 +2106,10 @@
         <v>23</v>
       </c>
       <c r="E115" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J115" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -2068,10 +2117,10 @@
         <v>25</v>
       </c>
       <c r="E116" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J116" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -2079,15 +2128,15 @@
         <v>21</v>
       </c>
       <c r="E117" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J117" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>12</v>
@@ -2098,10 +2147,10 @@
         <v>15</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -2109,10 +2158,10 @@
         <v>19</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -2120,10 +2169,10 @@
         <v>23</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -2131,10 +2180,10 @@
         <v>25</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -2142,15 +2191,15 @@
         <v>21</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>12</v>
@@ -2161,10 +2210,10 @@
         <v>15</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -2172,10 +2221,10 @@
         <v>19</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -2183,10 +2232,10 @@
         <v>23</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J133" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -2194,10 +2243,10 @@
         <v>25</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J134" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -2205,21 +2254,21 @@
         <v>21</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J135" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J138" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -2227,10 +2276,10 @@
         <v>15</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J139" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -2238,10 +2287,10 @@
         <v>19</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J140" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -2249,10 +2298,10 @@
         <v>23</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J141" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -2260,10 +2309,10 @@
         <v>25</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J142" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -2271,62 +2320,72 @@
         <v>21</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G19" location="Trang tính2!A1" display="hinh"/>
-    <hyperlink ref="F39" location="Trang tính2!A1" display="module 2 và module 5"/>
-    <hyperlink ref="F40" location="Trang tính2!A1" display="module 4"/>
-    <hyperlink ref="F41" location="Trang tính2!A1" display="module1"/>
-    <hyperlink ref="F42" location="Trang tính2!A1" display="module3"/>
-    <hyperlink ref="F43" location="Trang tính2!A1" display="module1"/>
-    <hyperlink ref="F75" location="Trang tính2!A1" display="module 2 và module 5"/>
-    <hyperlink ref="F76" location="Trang tính2!A1" display="module 4"/>
-    <hyperlink ref="F77" location="Trang tính2!A1" display="module1"/>
-    <hyperlink ref="F78" location="Trang tính2!A1" display="module3"/>
-    <hyperlink ref="F79" location="Trang tính2!A1" display="module1"/>
-    <hyperlink ref="F82" location="Trang tính2!A1" display="module 2 và module 5"/>
-    <hyperlink ref="F83" location="Trang tính2!A1" display="module 4"/>
-    <hyperlink ref="F84" location="Trang tính2!A1" display="module1"/>
-    <hyperlink ref="F85" location="Trang tính2!A1" display="module3"/>
-    <hyperlink ref="F86" location="Trang tính2!A1" display="module1"/>
-    <hyperlink ref="F90" location="Trang tính2!A1" display="module 2 và module 5"/>
-    <hyperlink ref="F91" location="Trang tính2!A1" display="module 4"/>
-    <hyperlink ref="F92" location="Trang tính2!A1" display="module1"/>
-    <hyperlink ref="F93" location="Trang tính2!A1" display="module3"/>
-    <hyperlink ref="F94" location="Trang tính2!A1" display="module1"/>
-    <hyperlink ref="F98" location="Trang tính2!A1" display="module 2 và module 5"/>
-    <hyperlink ref="F99" location="Trang tính2!A1" display="module 4"/>
-    <hyperlink ref="F100" location="Trang tính2!A1" display="module1"/>
-    <hyperlink ref="F101" location="Trang tính2!A1" display="module3"/>
-    <hyperlink ref="F102" location="Trang tính2!A1" display="module1"/>
-    <hyperlink ref="F106" location="Trang tính2!A1" display="module 2 và module 5"/>
-    <hyperlink ref="F107" location="Trang tính2!A1" display="module 4"/>
-    <hyperlink ref="F108" location="Trang tính2!A1" display="module1"/>
-    <hyperlink ref="F109" location="Trang tính2!A1" display="module3"/>
-    <hyperlink ref="F110" location="Trang tính2!A1" display="module1"/>
-    <hyperlink ref="F46" location="Trang tính2!A1" display="module 2 và module 5"/>
-    <hyperlink ref="F47" location="Trang tính2!A1" display="module 4"/>
-    <hyperlink ref="F48" location="Trang tính2!A1" display="module1"/>
-    <hyperlink ref="F49" location="Trang tính2!A1" display="module3"/>
-    <hyperlink ref="F50" location="Trang tính2!A1" display="module1"/>
-    <hyperlink ref="F55" location="Trang tính2!A1" display="module 2 và module 5"/>
-    <hyperlink ref="F56" location="Trang tính2!A1" display="module 4"/>
-    <hyperlink ref="F57" location="Trang tính2!A1" display="module1"/>
-    <hyperlink ref="F58" location="Trang tính2!A1" display="module3"/>
-    <hyperlink ref="F59" location="Trang tính2!A1" display="module1"/>
-    <hyperlink ref="F61" location="Trang tính2!A1" display="module 2 và module 5"/>
-    <hyperlink ref="F62" location="Trang tính2!A1" display="module 4"/>
-    <hyperlink ref="F63" location="Trang tính2!A1" display="module1"/>
-    <hyperlink ref="F64" location="Trang tính2!A1" display="module3"/>
-    <hyperlink ref="F65" location="Trang tính2!A1" display="module1"/>
-    <hyperlink ref="F68" location="Trang tính2!A1" display="module 2 và module 5"/>
-    <hyperlink ref="F69" location="Trang tính2!A1" display="module 4"/>
-    <hyperlink ref="F70" location="Trang tính2!A1" display="module1"/>
-    <hyperlink ref="F71" location="Trang tính2!A1" display="module3"/>
-    <hyperlink ref="F72" location="Trang tính2!A1" display="module1"/>
+    <hyperlink ref="F39" location="module2" display="module 2 và module 5"/>
+    <hyperlink ref="F40" location="module4" display="module 4"/>
+    <hyperlink ref="F42" location="module3" display="module3"/>
+    <hyperlink ref="F43" location="module1" display="module1-2"/>
+    <hyperlink ref="F41" location="module1" display="h"/>
+    <hyperlink ref="G39" location="module5" display="module5"/>
+    <hyperlink ref="F46" location="module2" display="module 2 và module 5"/>
+    <hyperlink ref="F47" location="module4" display="module 4"/>
+    <hyperlink ref="F49" location="module3" display="module3"/>
+    <hyperlink ref="F50" location="module1" display="module1-2"/>
+    <hyperlink ref="F48" location="module1" display="h"/>
+    <hyperlink ref="G46" location="module5" display="module5"/>
+    <hyperlink ref="F55" location="module2" display="module 2 và module 5"/>
+    <hyperlink ref="F56" location="module4" display="module 4"/>
+    <hyperlink ref="F58" location="module3" display="module3"/>
+    <hyperlink ref="F59" location="module1" display="module1-2"/>
+    <hyperlink ref="F57" location="module1" display="h"/>
+    <hyperlink ref="G55" location="module5" display="module5"/>
+    <hyperlink ref="F61" location="module2" display="module 2 và module 5"/>
+    <hyperlink ref="F62" location="module4" display="module 4"/>
+    <hyperlink ref="F64" location="module3" display="module3"/>
+    <hyperlink ref="F65" location="module1" display="module1-2"/>
+    <hyperlink ref="F63" location="module1" display="h"/>
+    <hyperlink ref="G61" location="module5" display="module5"/>
+    <hyperlink ref="F68" location="module2" display="module 2 và module 5"/>
+    <hyperlink ref="F69" location="module4" display="module 4"/>
+    <hyperlink ref="F71" location="module3" display="module3"/>
+    <hyperlink ref="F72" location="module1" display="module1-2"/>
+    <hyperlink ref="F70" location="module1" display="h"/>
+    <hyperlink ref="G68" location="module5" display="module5"/>
+    <hyperlink ref="F75" location="module2" display="module 2 và module 5"/>
+    <hyperlink ref="F76" location="module4" display="module 4"/>
+    <hyperlink ref="F78" location="module3" display="module3"/>
+    <hyperlink ref="F79" location="module1" display="module1-2"/>
+    <hyperlink ref="F77" location="module1" display="h"/>
+    <hyperlink ref="G75" location="module5" display="module5"/>
+    <hyperlink ref="F82" location="module2" display="module 2 và module 5"/>
+    <hyperlink ref="F83" location="module4" display="module 4"/>
+    <hyperlink ref="F85" location="module3" display="module3"/>
+    <hyperlink ref="F86" location="module1" display="module1-2"/>
+    <hyperlink ref="F84" location="module1" display="h"/>
+    <hyperlink ref="G82" location="module5" display="module5"/>
+    <hyperlink ref="F90" location="module2" display="module 2 và module 5"/>
+    <hyperlink ref="F91" location="module4" display="module 4"/>
+    <hyperlink ref="F93" location="module3" display="module3"/>
+    <hyperlink ref="F94" location="module1" display="module1-2"/>
+    <hyperlink ref="F92" location="module1" display="h"/>
+    <hyperlink ref="G90" location="module5" display="module5"/>
+    <hyperlink ref="F98" location="module2" display="module 2 và module 5"/>
+    <hyperlink ref="F99" location="module4" display="module 4"/>
+    <hyperlink ref="F101" location="module3" display="module3"/>
+    <hyperlink ref="F102" location="module1" display="module1-2"/>
+    <hyperlink ref="F100" location="module1" display="h"/>
+    <hyperlink ref="G98" location="module5" display="module5"/>
+    <hyperlink ref="F106" location="module2" display="module 2 và module 5"/>
+    <hyperlink ref="F107" location="module4" display="module 4"/>
+    <hyperlink ref="F109" location="module3" display="module3"/>
+    <hyperlink ref="F110" location="module1" display="module1-2"/>
+    <hyperlink ref="F108" location="module1" display="h"/>
+    <hyperlink ref="G106" location="module5" display="module5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2339,15 +2398,15 @@
   </sheetPr>
   <dimension ref="A38:A139"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
